--- a/data/HR1/A_BJ_35_1/A_BJ_35_1_2040.xlsx
+++ b/data/HR1/A_BJ_35_1/A_BJ_35_1_2040.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_BJ_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE785F60-B1D2-4F40-8872-A046239CD167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C495D7-A7DF-4C10-83B0-977EB87A5E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,16 +673,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
@@ -5503,11 +5503,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5802,7 +5802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5813,7 +5813,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,10 +5827,10 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -5873,7 +5873,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -13022,99 +13022,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1275763448237619</v>
+        <v>1.0148187103413857</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0683630296526756</v>
+        <v>0.96152672668740802</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89171095154470148</v>
+        <v>0.80253985639023129</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0103257653339468</v>
+        <v>0.90929318880055221</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99081991908401434</v>
+        <v>0.89173792717561295</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99508388079677002</v>
+        <v>0.89557549271709314</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0978695541035086</v>
+        <v>0.98808259869315773</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1865584132426543</v>
+        <v>1.0679025719183888</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2370707270421182</v>
+        <v>1.1133636543379064</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2021204610035992</v>
+        <v>1.0819084149032392</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1864716000187323</v>
+        <v>1.0678244400168591</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3047187637507245</v>
+        <v>1.1742468873756522</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2719167067223733</v>
+        <v>1.144725036050136</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2721304132572795</v>
+        <v>1.1449173719315515</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2363689131557118</v>
+        <v>1.1127320218401406</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2193918848198984</v>
+        <v>1.0974526963379085</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2232960254497764</v>
+        <v>1.1009664229047986</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0977966152111915</v>
+        <v>0.98801695369007247</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3241888350602904</v>
+        <v>1.1917699515542615</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3432467092905638</v>
+        <v>1.2089220383615074</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2569293940722361</v>
+        <v>1.1312364546650127</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2848417594000812</v>
+        <v>1.1563575834600732</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.189661824209578</v>
+        <v>1.0706956417886202</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.049195541889034</v>
+        <v>0.94427598770013055</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13123,99 +13123,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94934144855668867</v>
+        <v>-0.8544073037010198</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5456275594353559</v>
+        <v>-1.3910648034918203</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.81660707553518319</v>
+        <v>-0.73494636798166502</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.78013352547889747</v>
+        <v>-0.70212017293100781</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2278475717509956</v>
+        <v>-1.1050628145758961</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0444603690668464</v>
+        <v>-1.8400143321601616</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6553520795642731</v>
+        <v>-1.4898168716078457</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3257882503293807</v>
+        <v>-1.1932094252964427</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1433103024983502</v>
+        <v>-1.0289792722485152</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1116899944266903</v>
+        <v>-1.0005209949840213</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1885854428303941</v>
+        <v>-1.0697268985473547</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0788318363254072</v>
+        <v>-0.97094865269286657</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1237997446579919</v>
+        <v>-1.0114197701921928</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2382242104023118</v>
+        <v>-1.1144017893620808</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4241698730023429</v>
+        <v>-1.2817528857021088</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5751243963196102</v>
+        <v>-1.4176119566876491</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6511942904243739</v>
+        <v>-1.4860748613819366</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4600690588770506</v>
+        <v>-1.3140621529893457</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2873319809440558</v>
+        <v>-1.1585987828496502</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49189571091195661</v>
+        <v>-0.44270613982076096</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22062961723600313</v>
+        <v>-0.19856665551240282</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.68184936643401017</v>
+        <v>-0.6136644297906092</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2412404411621398</v>
+        <v>-1.1171163970459259</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6790295340409316</v>
+        <v>-1.5111265806368384</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13224,99 +13224,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5549365960184217E-2</v>
+        <v>-6.799442936416579E-2</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26320919118105229</v>
+        <v>-0.23688827206294705</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.90929198683200663</v>
+        <v>-0.81836278814880592</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7397293016199592E-2</v>
+        <v>5.1657563714579635E-2</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6739497901045854E-2</v>
+        <v>4.2065548110941264E-2</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.17125711371396499</v>
+        <v>0.1541314023425685</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17502075108698129</v>
+        <v>-0.15751867597828315</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.60369556429561522</v>
+        <v>-0.54332600786605367</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.70539524757770344</v>
+        <v>-0.63485572281993308</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46971157805264524</v>
+        <v>-0.42274042024738073</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49572747693547342</v>
+        <v>-0.44615472924192612</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55713100687893868</v>
+        <v>-0.50141790619104487</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43242442235387546</v>
+        <v>-0.38918198011848792</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.51096333584569886</v>
+        <v>-0.45986700226112898</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88534185201901006</v>
+        <v>-0.79680766681710902</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25336117403441871</v>
+        <v>-0.22802505663097686</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25254644771213497</v>
+        <v>-0.22729180294092147</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27634531442850346</v>
+        <v>-0.24871078298565313</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2518266398120429</v>
+        <v>-0.22664397583083859</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16230219944659402</v>
+        <v>-0.1460719795019346</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26221679370390133</v>
+        <v>-0.23599511433351117</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22719474496736575</v>
+        <v>-0.20447527047062919</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.5409112866833468E-2</v>
+        <v>-4.0868201580150122E-2</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11170893231582296</v>
+        <v>0.10053803908424067</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13325,99 +13325,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0286971079831289</v>
+        <v>1.825827397184816</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8659513521531288</v>
+        <v>1.679356216937816</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7956225191437611</v>
+        <v>1.6160602672293851</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.791262660387017</v>
+        <v>1.6121363943483153</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7683677047962896</v>
+        <v>1.5915309343166606</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6774388356087342</v>
+        <v>1.5096949520478609</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0310457450509984</v>
+        <v>1.8279411705458986</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.626799959198808</v>
+        <v>2.3641199632789274</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2262365653802099</v>
+        <v>2.9036129088421889</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6246598191042581</v>
+        <v>3.2621938371938319</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5752134454207738</v>
+        <v>3.2176921008786965</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7785246373718353</v>
+        <v>3.4006721736346521</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7862177806203374</v>
+        <v>3.4075960025583036</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6617302021828952</v>
+        <v>3.2955571819646057</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5544131863797777</v>
+        <v>3.1989718677417995</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2987949434984487</v>
+        <v>2.9689154491486036</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.208513195866229</v>
+        <v>2.8876618762796062</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.208513195866229</v>
+        <v>2.8876618762796062</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.208513195866229</v>
+        <v>2.8876618762796062</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.208513195866229</v>
+        <v>2.8876618762796062</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2186249594792486</v>
+        <v>2.8967624635313238</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2751028846698933</v>
+        <v>2.9475925962029041</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9589366206523482</v>
+        <v>2.6630429585871132</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5115945848289778</v>
+        <v>2.26043512634608</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -13426,99 +13426,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2289736174182231</v>
+        <v>2.0060762556764007</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9766843144214001</v>
+        <v>1.7790158829792602</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8469120164922181</v>
+        <v>1.6622208148429964</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7908682284501838</v>
+        <v>1.6117814056051656</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8198976589907871</v>
+        <v>1.6379078930917086</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8218868459050086</v>
+        <v>1.6396981613145076</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7471189915486955</v>
+        <v>2.4724070923938264</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2620851983362056</v>
+        <v>2.9358766785025852</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6617169197596349</v>
+        <v>3.2955452277836716</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.816839929973622</v>
+        <v>3.4351559369762596</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3609093040654416</v>
+        <v>3.0248183736588974</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9953876419088759</v>
+        <v>3.5958488777179882</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0519033703124823</v>
+        <v>3.6467130332812348</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8320313760277007</v>
+        <v>3.4488282384249307</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4694301627907391</v>
+        <v>3.122487146511665</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3091869046837861</v>
+        <v>2.9782682142154075</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2911729910396179</v>
+        <v>2.9620556919356562</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2387047792512513</v>
+        <v>2.9148343013261266</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0332496755446061</v>
+        <v>2.7299247079901456</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2506921465131575</v>
+        <v>2.9256229318618421</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5127395991856325</v>
+        <v>3.1614656392670692</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3657994258860113</v>
+        <v>3.02921948329741</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8152696255250858</v>
+        <v>2.5337426629725774</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3299426569314514</v>
+        <v>2.0969483912383065</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -13527,99 +13527,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Pc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45522726516796647</v>
+        <v>0.40970453865116979</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Pc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43976371490167221</v>
+        <v>0.39578734341150501</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Pc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46245106850555767</v>
+        <v>0.4162059616550019</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Pc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45499679578873214</v>
+        <v>0.40949711620985896</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Pc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47967931063506697</v>
+        <v>0.43171137957156025</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Pc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44868246356916847</v>
+        <v>0.40381421721225164</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Pc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42840112268205355</v>
+        <v>0.38556101041384822</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Pc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61908631378153989</v>
+        <v>0.55717768240338594</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Pc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77799539469481582</v>
+        <v>0.70019585522533423</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Pc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81629527005724556</v>
+        <v>0.73466574305152099</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Pc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80015540136998831</v>
+        <v>0.72013986123298956</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Pc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73166530006567398</v>
+        <v>0.65849877005910651</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Pc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66965155207915095</v>
+        <v>0.60268639687123582</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Pc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64492433631460777</v>
+        <v>0.58043190268314704</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Pc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64615538334431977</v>
+        <v>0.58153984500988787</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Pc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69152749799354007</v>
+        <v>0.62237474819418603</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Pc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70606189421631049</v>
+        <v>0.63545570479467939</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Pc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6927681931292744</v>
+        <v>0.62349137381634701</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Pc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67047990807759028</v>
+        <v>0.60343191726983136</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Pc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78615736092094068</v>
+        <v>0.70754162482884653</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Pc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94858604328873308</v>
+        <v>0.85372743895985981</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Pc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0278713729337805</v>
+        <v>0.92508423564040254</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Pc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85798406929585536</v>
+        <v>0.77218566236626984</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Pc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55060213550673032</v>
+        <v>0.4955419219560574</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -13628,99 +13628,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52644449735828247</v>
+        <v>0.4738000476224542</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45860698684241097</v>
+        <v>0.41274628815816988</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45860698684241097</v>
+        <v>0.41274628815816988</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45860698684241097</v>
+        <v>0.41274628815816988</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45860698684241097</v>
+        <v>0.41274628815816988</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45860698684241097</v>
+        <v>0.41274628815816988</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55169391834104919</v>
+        <v>0.49652452650694429</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80081970799760505</v>
+        <v>0.72073773719784451</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91702720292566542</v>
+        <v>0.82532448263309888</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92178108717551277</v>
+        <v>0.82960297845796149</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87051055062437099</v>
+        <v>0.78345949556193406</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87179457739700938</v>
+        <v>0.78461511965730857</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88016493087504721</v>
+        <v>0.79214843778754251</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88016493087504721</v>
+        <v>0.79214843778754251</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81995405283998657</v>
+        <v>0.73795864755598795</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69689257101613067</v>
+        <v>0.62720331391451767</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69689257101613067</v>
+        <v>0.62720331391451767</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69689257101613067</v>
+        <v>0.62720331391451767</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71060470789641439</v>
+        <v>0.63954423710677299</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85759126707999866</v>
+        <v>0.77183214037199877</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93176850268343092</v>
+        <v>0.83859165241508793</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93926983605973324</v>
+        <v>0.84534285245375995</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.79889507855353636</v>
+        <v>0.71900557069818272</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66340994566489997</v>
+        <v>0.59706895109840996</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -13729,99 +13729,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73686914120116365</v>
+        <v>0.66318222708104735</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66624756610862035</v>
+        <v>0.59962280949775837</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64788751630250851</v>
+        <v>0.58309876467225763</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6463126376073427</v>
+        <v>0.58168137384660845</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64303316547624989</v>
+        <v>0.578729848928625</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65005193176316023</v>
+        <v>0.58504673858684431</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6658620167430167</v>
+        <v>0.59927581506871497</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71867499541202207</v>
+        <v>0.64680749587081987</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82750476321042243</v>
+        <v>0.74475428688938028</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91313787578863292</v>
+        <v>0.82182408820976971</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98419362749034311</v>
+        <v>0.88577426474130883</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99184702606651143</v>
+        <v>0.8926623234598603</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99804750274290177</v>
+        <v>0.89824275246861163</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93446304704201688</v>
+        <v>0.8410167423378152</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86035523834138827</v>
+        <v>0.77431971450724946</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85164884271171593</v>
+        <v>0.7664839584405444</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82871012536402056</v>
+        <v>0.7458391128276185</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81119980339365527</v>
+        <v>0.73007982305428976</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81872348722906196</v>
+        <v>0.73685113850615569</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83750415894324171</v>
+        <v>0.75375374304891751</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95434041837583439</v>
+        <v>0.85890637653825097</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0015819966113761</v>
+        <v>0.90142379695023866</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93290826560818918</v>
+        <v>0.8396174390473703</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76643166412748165</v>
+        <v>0.68978849771473361</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -13830,99 +13830,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58949532795594239</v>
+        <v>0.53054579516034817</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5329980473624184</v>
+        <v>0.47969824262617661</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51831000357147328</v>
+        <v>0.46647900321432595</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51705008719875167</v>
+        <v>0.46534507847887646</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51442648108227662</v>
+        <v>0.46298383297404899</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52004153278315024</v>
+        <v>0.4680373795048352</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.53268962760021366</v>
+        <v>0.47942066484019225</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57494001369226244</v>
+        <v>0.51744601232303611</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66200378847042629</v>
+        <v>0.59580340962338374</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73051027379772804</v>
+        <v>0.65745924641795528</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78735489410016313</v>
+        <v>0.70861940469014684</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.79347760585819749</v>
+        <v>0.71412984527237777</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.798438006929588</v>
+        <v>0.71859420623662928</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74757044552572471</v>
+        <v>0.67281340097315223</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68828419146232178</v>
+        <v>0.61945577231608961</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68131905996357245</v>
+        <v>0.61318715396721524</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66296811370780551</v>
+        <v>0.59667130233702492</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64895983719044636</v>
+        <v>0.58406385347140177</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65497877557744921</v>
+        <v>0.58948089801970427</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67000333110064902</v>
+        <v>0.6030029979905841</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76347235916621226</v>
+        <v>0.68712512324959096</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80126557282355615</v>
+        <v>0.72113901554120052</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74632661722181814</v>
+        <v>0.6716939554996364</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61314532183145187</v>
+        <v>0.55183078964830667</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -13931,99 +13931,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58949532795594239</v>
+        <v>0.53054579516034817</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5329980473624184</v>
+        <v>0.47969824262617661</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51831000357147328</v>
+        <v>0.46647900321432595</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51705008719875167</v>
+        <v>0.46534507847887646</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51442648108227662</v>
+        <v>0.46298383297404899</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52004153278315024</v>
+        <v>0.4680373795048352</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.53268962760021366</v>
+        <v>0.47942066484019225</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57494001369226244</v>
+        <v>0.51744601232303611</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66200378847042629</v>
+        <v>0.59580340962338374</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73051027379772804</v>
+        <v>0.65745924641795528</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78735489410016313</v>
+        <v>0.70861940469014684</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.79347760585819749</v>
+        <v>0.71412984527237777</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.798438006929588</v>
+        <v>0.71859420623662928</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74757044552572471</v>
+        <v>0.67281340097315223</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68828419146232178</v>
+        <v>0.61945577231608961</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68131905996357245</v>
+        <v>0.61318715396721524</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66296811370780551</v>
+        <v>0.59667130233702492</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64895983719044636</v>
+        <v>0.58406385347140177</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65497877557744921</v>
+        <v>0.58948089801970427</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67000333110064902</v>
+        <v>0.6030029979905841</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76347235916621226</v>
+        <v>0.68712512324959096</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80126557282355615</v>
+        <v>0.72113901554120052</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74632661722181814</v>
+        <v>0.6716939554996364</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61314532183145187</v>
+        <v>0.55183078964830667</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -14032,99 +14032,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8307333881102346</v>
+        <v>3.4476600492992113</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.386823603853891</v>
+        <v>3.048141243468502</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2106566853938605</v>
+        <v>2.8895910168544745</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0495662446570453</v>
+        <v>2.7446096201913406</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0391155701099462</v>
+        <v>2.7352040130989517</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0307184742128848</v>
+        <v>2.7276466267915964</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6703048863676551</v>
+        <v>3.3032743977308896</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4761588182454295</v>
+        <v>4.0285429364208865</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0758452492089452</v>
+        <v>4.5682607242880504</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2005554996196901</v>
+        <v>4.6804999496577215</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2812282229646783</v>
+        <v>4.7531054006682103</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.625737958887953</v>
+        <v>5.0631641629991577</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6577327397470558</v>
+        <v>5.0919594657723506</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5610970612269961</v>
+        <v>5.0049873551042969</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3951351240521968</v>
+        <v>4.8556216116469777</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1435154311817612</v>
+        <v>4.6291638880635855</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0966795745482187</v>
+        <v>4.5870116170933963</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0740232842942756</v>
+        <v>4.5666209558648481</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2054846952831371</v>
+        <v>4.6849362257548242</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4421294306036216</v>
+        <v>4.8979164875432595</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6470434314316167</v>
+        <v>5.0823390882884549</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7669352282841961</v>
+        <v>5.1902417054557768</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.320719511174044</v>
+        <v>4.7886475600566394</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6050157970021361</v>
+        <v>4.1445142173019232</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -14133,99 +14133,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5344984853596739</v>
+        <v>3.1810486368237063</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.175669306702114</v>
+        <v>2.8581023760319026</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9751312605917888</v>
+        <v>2.6776181345326098</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9504919747849119</v>
+        <v>2.6554427773064209</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9976370837983977</v>
+        <v>2.697873375418558</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0293972006211289</v>
+        <v>2.726457480559016</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5309638652174189</v>
+        <v>3.1778674786956769</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2889404303760923</v>
+        <v>3.8600463873384832</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8486365667730835</v>
+        <v>4.3637729100957747</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1573893168824343</v>
+        <v>4.6416503851941915</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3405946806088185</v>
+        <v>4.8065352125479368</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7778306351392787</v>
+        <v>5.2000475716253511</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8314053603876435</v>
+        <v>5.2482648243488796</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8288367109879662</v>
+        <v>5.2459530398891694</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5024200781532997</v>
+        <v>4.9521780703379701</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2021421217764203</v>
+        <v>4.6819279095987785</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.884388525312132</v>
+        <v>4.3959496727809189</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.799184783047326</v>
+        <v>4.3192663047425937</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6298343284400785</v>
+        <v>4.1668508955960704</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6339155522625344</v>
+        <v>4.1705239970362813</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.685833719410188</v>
+        <v>4.2172503474691698</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8213683674049053</v>
+        <v>4.3392315306644145</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5765018199785681</v>
+        <v>4.1188516379807121</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9371455851949149</v>
+        <v>3.5434310266754236</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -14234,99 +14234,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6575420797133473</v>
+        <v>3.2917878717420126</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2015572500168421</v>
+        <v>3.7814015250151578</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.755591240075284</v>
+        <v>2.4800321160677554</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7450283862905041</v>
+        <v>3.3705255476614537</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4313843700044497</v>
+        <v>3.0882459330040049</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3497332576798087</v>
+        <v>3.0147599319118279</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.088601719266058</v>
+        <v>3.6797415473394519</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9830259281333076</v>
+        <v>3.5847233353199766</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3675279553272564</v>
+        <v>3.9307751597945311</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4482740082240682</v>
+        <v>4.0034466074016617</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0221912445250139</v>
+        <v>3.6199721200725126</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1332496971921575</v>
+        <v>3.7199247274729412</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3322716568901907</v>
+        <v>3.8990444912011717</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2498014539057349</v>
+        <v>3.8248213085151619</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3548600434188049</v>
+        <v>3.9193740390769243</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5352964204470902</v>
+        <v>4.0817667784023808</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5367981590010995</v>
+        <v>4.0831183431009901</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4955404347719305</v>
+        <v>4.0459863912947371</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1894315971813398</v>
+        <v>3.7704884374632055</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5068787113967392</v>
+        <v>4.0561908402570657</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5481233070988196</v>
+        <v>4.0933109763889375</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2329986005194984</v>
+        <v>3.8096987404675486</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7741752277704075</v>
+        <v>3.3967577049933664</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1892513058455325</v>
+        <v>3.7703261752609798</v>
       </c>
     </row>
   </sheetData>
@@ -20052,99 +20052,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33827290818239536</v>
+        <v>0.30444561736415587</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32050893375595313</v>
+        <v>0.28845804038035783</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26751329611776065</v>
+        <v>0.24076196650598458</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30309773670308415</v>
+        <v>0.27278796303277575</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29724596112479845</v>
+        <v>0.2675213650123186</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29852516976350885</v>
+        <v>0.26867265278715796</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32936087175553042</v>
+        <v>0.2964247845799774</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35596753462714642</v>
+        <v>0.32037078116443179</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37112120114459618</v>
+        <v>0.3340090810301366</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36063616434504692</v>
+        <v>0.32457254791054224</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35594147487574734</v>
+        <v>0.32034732738817262</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39141563109824518</v>
+        <v>0.3522740679884207</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38157501675197875</v>
+        <v>0.34341751507678087</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38163911647967813</v>
+        <v>0.34347520483171035</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37091067513053011</v>
+        <v>0.33381960761747709</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36581756820820843</v>
+        <v>0.32923581138738761</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36698881671086087</v>
+        <v>0.33028993503977477</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32933898693099084</v>
+        <v>0.29640508823789175</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39725663789070903</v>
+        <v>0.35753097410163814</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40297402265230831</v>
+        <v>0.36267662038707749</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37707882177312085</v>
+        <v>0.33937093959580883</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3854525215063353</v>
+        <v>0.34690726935570176</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35689853937076216</v>
+        <v>0.32120868543368591</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Qc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31475866256671015</v>
+        <v>0.28328279631003916</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20153,99 +20153,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28480244166990676</v>
+        <v>-0.25632219750291613</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46368824770572309</v>
+        <v>-0.41731942293515079</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24498212739582173</v>
+        <v>-0.22048391465623954</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23404007027104726</v>
+        <v>-0.21063606324394255</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36835427428753764</v>
+        <v>-0.33151884685878391</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.61333812216361538</v>
+        <v>-0.5520043099472538</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4966056203178319</v>
+        <v>-0.44694505828604869</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39773649403988126</v>
+        <v>-0.35796284463589312</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34299311284741651</v>
+        <v>-0.3086938015626749</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33350702003131305</v>
+        <v>-0.30015631802818177</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35657564547649617</v>
+        <v>-0.32091808092884661</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3236495678656614</v>
+        <v>-0.29128461107909526</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33713994431149241</v>
+        <v>-0.30342594988034322</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37146727811570485</v>
+        <v>-0.33432055030413438</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42725097768492537</v>
+        <v>-0.38452587991643289</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47253730903074387</v>
+        <v>-0.42528357812766954</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49535824845596699</v>
+        <v>-0.44582242361037028</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43802074212866005</v>
+        <v>-0.39421866791579407</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.38619959665085007</v>
+        <v>-0.34757963698576511</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14756871287898143</v>
+        <v>-0.13281184159108331</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6188907663318058E-2</v>
+        <v>-5.9570016896986253E-2</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20455481111401971</v>
+        <v>-0.18409933000261774</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37237211656441938</v>
+        <v>-0.33513490490797743</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.50370884008739558</v>
+        <v>-0.45333795607865607</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20254,99 +20254,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2664817680166535E-2</v>
+        <v>-2.039833591214988E-2</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8962751435232237E-2</v>
+        <v>-7.1066476291709008E-2</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27278759013051851</v>
+        <v>-0.24550883111746666</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7219174093665163E-2</v>
+        <v>1.5497256684298648E-2</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4021815434235313E-2</v>
+        <v>1.2619633890811782E-2</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1377119513783667E-2</v>
+        <v>4.6239407562405299E-2</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.2506212304110789E-2</v>
+        <v>-4.7255591073699706E-2</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18110867047250123</v>
+        <v>-0.16299780342525111</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21161857821936672</v>
+        <v>-0.19045672039743003</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14091345329090982</v>
+        <v>-0.12682210796181884</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14871824229143088</v>
+        <v>-0.13384641806228781</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16713929417157036</v>
+        <v>-0.15042536475441334</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12972732867919048</v>
+        <v>-0.11675459581127143</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15328900588358199</v>
+        <v>-0.13796010529522379</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2656025646816309</v>
+        <v>-0.23904230821346784</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.6008347475058843E-2</v>
+        <v>-6.8407512727552952E-2</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5763952465496401E-2</v>
+        <v>-6.8187557218946773E-2</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.2903602220662301E-2</v>
+        <v>-7.4613241998596078E-2</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5547976948601464E-2</v>
+        <v>-6.799317925374132E-2</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.8690680353467485E-2</v>
+        <v>-4.3821612318120741E-2</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8665041268014893E-2</v>
+        <v>-7.0798537141213411E-2</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.8158419544154095E-2</v>
+        <v>-6.1342577589738684E-2</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3622711367532936E-2</v>
+        <v>-1.2260440230779641E-2</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3512658780652037E-2</v>
+        <v>3.016139290258683E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20355,99 +20355,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39287916394161987</v>
+        <v>0.35359124754745791</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34070525687445929</v>
+        <v>0.30663473118701334</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12306918847050691</v>
+        <v>0.11076226962345623</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5445220618585611E-2</v>
+        <v>8.5900698556727051E-2</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5445220618585611E-2</v>
+        <v>8.5900698556727051E-2</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5445220618585611E-2</v>
+        <v>8.5900698556727051E-2</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12825280607087847</v>
+        <v>0.11542752546379062</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46662149291559335</v>
+        <v>0.41995934362403403</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56489147772864756</v>
+        <v>0.50840232995578294</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60374651181989047</v>
+        <v>0.54337186063790133</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54119024037469055</v>
+        <v>0.48707121633722156</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -20456,99 +20456,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66869209627442272</v>
+        <v>0.60182288664698047</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.59300530103471483</v>
+        <v>0.53370477093124336</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55407359902858211</v>
+        <v>0.49866623912572389</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.53726044249108795</v>
+        <v>0.48353439824197914</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54596927678314122</v>
+        <v>0.49137234910482719</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54656604666860242</v>
+        <v>0.49190944200174219</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8241356958861864</v>
+        <v>0.74172212629756784</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.97862556147388946</v>
+        <v>0.88076300532650054</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0985150775063128</v>
+        <v>0.98866356975568148</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.145051977019059</v>
+        <v>1.0305467793171532</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0082727864843659</v>
+        <v>0.90744550783592925</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1986162688963289</v>
+        <v>1.078754642006696</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2155710178020394</v>
+        <v>1.0940139160218354</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1496094108352823</v>
+        <v>1.0346484697517542</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.040829047653405</v>
+        <v>0.93674614288806457</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99275607495658613</v>
+        <v>0.89348046746092746</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98735188863056311</v>
+        <v>0.8886166997675069</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.97161142391023636</v>
+        <v>0.87445028151921278</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90997490305798745</v>
+        <v>0.81897741275218872</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.97520763014275258</v>
+        <v>0.87768686712847732</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0538218698905506</v>
+        <v>0.9484396829014955</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0097398352633091</v>
+        <v>0.90876585173697833</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84458089278739812</v>
+        <v>0.76012280350865846</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69898279273877439</v>
+        <v>0.62908451346489702</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -20557,99 +20557,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27313638198790258</v>
+        <v>0.24582274378911231</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26385823446548118</v>
+        <v>0.2374724110189331</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27747060322120054</v>
+        <v>0.24972354289908047</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27299806484586131</v>
+        <v>0.24569825836127518</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28780758795946249</v>
+        <v>0.25902682916351621</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.269209496293357</v>
+        <v>0.2422885466640213</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25704070123162154</v>
+        <v>0.23133663110845942</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37145181746973555</v>
+        <v>0.33430663572276204</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46679723839531179</v>
+        <v>0.42011751455578061</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48977716834803636</v>
+        <v>0.44079945151323274</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48009325581700441</v>
+        <v>0.43208393023530395</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43899919424520473</v>
+        <v>0.39509927482068424</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40179092809064604</v>
+        <v>0.36161183528158142</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38695459942113131</v>
+        <v>0.34825913947901815</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38769323000659178</v>
+        <v>0.34892390700593262</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41491649169322387</v>
+        <v>0.37342484252390151</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42363714836795313</v>
+        <v>0.38127343353115778</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41566090325018656</v>
+        <v>0.37409481292516789</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4022879653660435</v>
+        <v>0.36205916882943917</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47169442365546455</v>
+        <v>0.42452498128991811</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56915161571349526</v>
+        <v>0.5122364541421458</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61672280797604584</v>
+        <v>0.55505052717844139</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51479045341568008</v>
+        <v>0.46331140807411203</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33036128761772721</v>
+        <v>0.29732515885595445</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -20658,99 +20658,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15793333184483996</v>
+        <v>0.14213999866035595</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13758205501374471</v>
+        <v>0.12382384951237024</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13758205501374471</v>
+        <v>0.12382384951237024</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13758205501374471</v>
+        <v>0.12382384951237024</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13758205501374471</v>
+        <v>0.12382384951237024</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13758205501374471</v>
+        <v>0.12382384951237024</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.16550814472308084</v>
+        <v>0.14895733025077273</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24024592147520943</v>
+        <v>0.21622132932768848</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27510819047311685</v>
+        <v>0.24759737142580518</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27653434627753753</v>
+        <v>0.24888091164978376</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26115316203046685</v>
+        <v>0.23503784582742018</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26153839571161991</v>
+        <v>0.23538455614045795</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26404950767411473</v>
+        <v>0.23764455690670327</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26404950767411473</v>
+        <v>0.23764455690670327</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24598624860425777</v>
+        <v>0.221387623743832</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20906780445170647</v>
+        <v>0.18816102400653584</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20906780445170647</v>
+        <v>0.18816102400653584</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20906780445170647</v>
+        <v>0.18816102400653584</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21318144117513041</v>
+        <v>0.19186329705761734</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25727735802608803</v>
+        <v>0.23154962222347925</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27953050739841734</v>
+        <v>0.25157745665857562</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28178090741130807</v>
+        <v>0.25360281667017726</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23966851883079418</v>
+        <v>0.21570166694771478</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.19902300540277595</v>
+        <v>0.17912070486249837</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -20759,99 +20759,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73686914120116365</v>
+        <v>0.66318222708104735</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66624756610862035</v>
+        <v>0.59962280949775837</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64788751630250851</v>
+        <v>0.58309876467225763</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6463126376073427</v>
+        <v>0.58168137384660845</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64303316547624989</v>
+        <v>0.578729848928625</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65005193176316023</v>
+        <v>0.58504673858684431</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6658620167430167</v>
+        <v>0.59927581506871497</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71867499541202207</v>
+        <v>0.64680749587081987</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82750476321042243</v>
+        <v>0.74475428688938028</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91313787578863292</v>
+        <v>0.82182408820976971</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98419362749034311</v>
+        <v>0.88577426474130883</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99184702606651143</v>
+        <v>0.8926623234598603</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99804750274290177</v>
+        <v>0.89824275246861163</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93446304704201688</v>
+        <v>0.8410167423378152</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86035523834138827</v>
+        <v>0.77431971450724946</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85164884271171593</v>
+        <v>0.7664839584405444</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82871012536402056</v>
+        <v>0.7458391128276185</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81119980339365527</v>
+        <v>0.73007982305428976</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81872348722906196</v>
+        <v>0.73685113850615569</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83750415894324171</v>
+        <v>0.75375374304891751</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95434041837583439</v>
+        <v>0.85890637653825097</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0015819966113761</v>
+        <v>0.90142379695023866</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93290826560818918</v>
+        <v>0.8396174390473703</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76643166412748165</v>
+        <v>0.68978849771473361</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -20860,99 +20860,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19030357595134847</v>
+        <v>-0.17127321835621365</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1839970805982715</v>
+        <v>-0.16559737253844437</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18030439725158884</v>
+        <v>-0.16227395752642995</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1834656771243679</v>
+        <v>-0.16511910941193111</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17296340395381449</v>
+        <v>-0.15566706355843302</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17068346376845658</v>
+        <v>-0.15361511739161091</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21791429294845482</v>
+        <v>-0.19612286365360934</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18863778802651418</v>
+        <v>-0.16977400922386277</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15579770286002953</v>
+        <v>-0.14021793257402657</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11006636692838768</v>
+        <v>-9.9059730235548926E-2</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12615630222766736</v>
+        <v>-0.11354067200490062</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1245430244651388</v>
+        <v>-0.11208872201862492</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12396808415943843</v>
+        <v>-0.1115712757434946</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1188217844071864</v>
+        <v>-0.10693960596646776</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1633094814455919</v>
+        <v>-0.14697853330103272</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15818236741582656</v>
+        <v>-0.14236413067424392</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16202752240610538</v>
+        <v>-0.14582477016549483</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16939139098838316</v>
+        <v>-0.15245225188954487</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17557498249272063</v>
+        <v>-0.15801748424344858</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19245008026548294</v>
+        <v>-0.17320507223893467</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17455965448628741</v>
+        <v>-0.15710368903765867</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13438548556544141</v>
+        <v>-0.12094693700889729</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14638599713866007</v>
+        <v>-0.13174739742479408</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16002261835229867</v>
+        <v>-0.14402035651706882</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -20961,99 +20961,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19030357595134847</v>
+        <v>-0.17127321835621365</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1839970805982715</v>
+        <v>-0.16559737253844437</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18030439725158884</v>
+        <v>-0.16227395752642995</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1834656771243679</v>
+        <v>-0.16511910941193111</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17296340395381449</v>
+        <v>-0.15566706355843302</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17068346376845658</v>
+        <v>-0.15361511739161091</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21791429294845482</v>
+        <v>-0.19612286365360934</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18863778802651418</v>
+        <v>-0.16977400922386277</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15579770286002953</v>
+        <v>-0.14021793257402657</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11006636692838768</v>
+        <v>-9.9059730235548926E-2</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12615630222766736</v>
+        <v>-0.11354067200490062</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1245430244651388</v>
+        <v>-0.11208872201862492</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12396808415943843</v>
+        <v>-0.1115712757434946</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1188217844071864</v>
+        <v>-0.10693960596646776</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1633094814455919</v>
+        <v>-0.14697853330103272</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15818236741582656</v>
+        <v>-0.14236413067424392</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16202752240610538</v>
+        <v>-0.14582477016549483</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16939139098838316</v>
+        <v>-0.15245225188954487</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17557498249272063</v>
+        <v>-0.15801748424344858</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19245008026548294</v>
+        <v>-0.17320507223893467</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17455965448628741</v>
+        <v>-0.15710368903765867</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13438548556544141</v>
+        <v>-0.12094693700889729</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14638599713866007</v>
+        <v>-0.13174739742479408</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16002261835229867</v>
+        <v>-0.14402035651706882</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -21062,99 +21062,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2716895165153701</v>
+        <v>1.144520564863833</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1363812813546967</v>
+        <v>1.022743153219227</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1113672623207052</v>
+        <v>1.0002305360886345</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.026181269414137</v>
+        <v>0.9235631424727232</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.11368082684611</v>
+        <v>1.0023127441614992</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98158135839170113</v>
+        <v>0.88342322255253103</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0432297529253494</v>
+        <v>0.93890677763281449</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.347444176019851</v>
+        <v>1.212699758417866</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5773320171433853</v>
+        <v>1.4195988154290469</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6302306607341239</v>
+        <v>1.4672075946607115</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6976710086426641</v>
+        <v>1.5279039077783978</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7236393220406163</v>
+        <v>1.5512753898365546</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7244785296920457</v>
+        <v>1.5520306767228411</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6990884831246924</v>
+        <v>1.5291796348122233</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5632399106201631</v>
+        <v>1.4069159195581469</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4925322838924351</v>
+        <v>1.3432790555031917</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4231412586265941</v>
+        <v>1.2808271327639347</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4360042003886413</v>
+        <v>1.2924037803497772</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4534673985626396</v>
+        <v>1.3081206587063756</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4446189212538521</v>
+        <v>1.300157029128467</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4712224785796852</v>
+        <v>1.3241002307217167</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5870787272037576</v>
+        <v>1.428370854483382</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4498627596092359</v>
+        <v>1.3048764836483124</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3657511474316459</v>
+        <v>1.2291760326884813</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -21163,99 +21163,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68826684065570432</v>
+        <v>0.61944015659013385</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68826684065570432</v>
+        <v>0.61944015659013385</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67736739698570858</v>
+        <v>0.60963065728713761</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65525043388537885</v>
+        <v>0.58972539049684092</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6474806463983207</v>
+        <v>0.58273258175848863</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5172402002670291</v>
+        <v>0.46551618024032626</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47310492151113415</v>
+        <v>0.42579442936002071</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7261522775792425</v>
+        <v>0.65353704982131822</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85634298762533811</v>
+        <v>0.77070868886280441</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96390351846761202</v>
+        <v>0.86751316662085076</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98273137316899351</v>
+        <v>0.88445823585209415</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0981522613672097</v>
+        <v>0.98833703523048866</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0916662875657854</v>
+        <v>0.98249965880920698</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Qc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.101088545039917</v>
+        <v>0.99097969053592538</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0376193891385677</v>
+        <v>0.93385745022471089</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0266753945004772</v>
+        <v>0.92400785505042948</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82919598740986566</v>
+        <v>0.74627638866887913</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74888746132345319</v>
+        <v>0.67399871519110788</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74263552808161115</v>
+        <v>0.66837197527344994</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71913088716533613</v>
+        <v>0.64721779844880256</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73494624802157371</v>
+        <v>0.66145162321941631</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77114321114644457</v>
+        <v>0.69402889003180024</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74920391130887087</v>
+        <v>0.67428352017798376</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74143280583923155</v>
+        <v>0.66728952525530827</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -21264,99 +21264,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0972626033945145</v>
+        <v>0.9875363430550631</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2604671750050529</v>
+        <v>1.1344204575045476</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82667737004955744</v>
+        <v>0.74400963304460177</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1235085178601794</v>
+        <v>1.0111576660741612</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0294153263909518</v>
+        <v>0.92647379375185679</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.00491996507117</v>
+        <v>0.90442796856405305</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.226580528801801</v>
+        <v>1.1039224759216211</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1949077697586699</v>
+        <v>1.075416992782803</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3102583708139546</v>
+        <v>1.1792325337325593</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3344822237759209</v>
+        <v>1.2010340013983289</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2066573674384207</v>
+        <v>1.0859916306945787</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2399749056061971</v>
+        <v>1.1159774150455775</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2996815092998297</v>
+        <v>1.1697133583698467</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2749404349879039</v>
+        <v>1.1474463914891135</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3064580114472195</v>
+        <v>1.1758122103024977</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3605889174528041</v>
+        <v>1.2245300257075238</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3610394504625689</v>
+        <v>1.224935505416312</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3486621379290846</v>
+        <v>1.2137959241361762</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2568294562672795</v>
+        <v>1.1311465106405514</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3520635984240106</v>
+        <v>1.2168572385816094</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.364436988578196</v>
+        <v>1.2279932897203765</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2698996014645503</v>
+        <v>1.1429096413180955</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1322525706987554</v>
+        <v>1.0190273136288799</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2567753834669428</v>
+        <v>1.1310978451202485</v>
       </c>
     </row>
   </sheetData>
